--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang1/02.XuLyBH/XLBH2101_GpsTayNinh.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang1/02.XuLyBH/XLBH2101_GpsTayNinh.xlsx
@@ -5,26 +5,26 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang1\02.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang1\02.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
   </bookViews>
   <sheets>
-    <sheet name="TG102V" sheetId="24" r:id="rId1"/>
-    <sheet name="TG102LE" sheetId="19" r:id="rId2"/>
+    <sheet name="TG102LE" sheetId="19" r:id="rId1"/>
+    <sheet name="TG102V" sheetId="24" r:id="rId2"/>
     <sheet name="TG102SE" sheetId="23" r:id="rId3"/>
     <sheet name="TongHopThang" sheetId="22" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TG102LE!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TG102LE!$S$4:$S$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TG102SE!$S$4:$S$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TG102V!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TG102V!$S$4:$S$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TongHopThang!$S$1:$S$105</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="1">TG102LE!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="0">TG102LE!$S$4:$S$51</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="2">TG102SE!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="0">TG102V!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="1">TG102V!$S$4:$S$51</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="3">TongHopThang!$S$4:$S$51</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="99">
   <si>
     <t>STT</t>
   </si>
@@ -325,6 +325,15 @@
   </si>
   <si>
     <t>SE.4.00.---06.200630</t>
+  </si>
+  <si>
+    <t>Sim</t>
+  </si>
+  <si>
+    <t>18/01/2021</t>
+  </si>
+  <si>
+    <t>LE.1.00.---05.190404</t>
   </si>
 </sst>
 </file>
@@ -777,6 +786,30 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -789,31 +822,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1135,6 +1144,1779 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:V57"/>
+  <sheetViews>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="23" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="23" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="23" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="23" customWidth="1"/>
+    <col min="7" max="7" width="17" style="23" customWidth="1"/>
+    <col min="8" max="8" width="35.42578125" style="23" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="77" customWidth="1"/>
+    <col min="10" max="10" width="53" style="23" customWidth="1"/>
+    <col min="11" max="11" width="33.42578125" style="23" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" style="30" customWidth="1"/>
+    <col min="13" max="13" width="58" style="23" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" style="23" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="23" customWidth="1"/>
+    <col min="16" max="16" width="37.7109375" style="23" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" style="23" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" style="23" customWidth="1"/>
+    <col min="19" max="19" width="26.85546875" style="23" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="23"/>
+    <col min="21" max="21" width="30.5703125" style="23" customWidth="1"/>
+    <col min="22" max="22" width="21.42578125" style="23" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="80" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
+    </row>
+    <row r="2" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="83"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="32"/>
+    </row>
+    <row r="3" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="31"/>
+      <c r="V3" s="32"/>
+    </row>
+    <row r="4" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="79" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="79"/>
+      <c r="M4" s="85" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4" s="85" t="s">
+        <v>11</v>
+      </c>
+      <c r="O4" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="P4" s="90" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q4" s="79" t="s">
+        <v>40</v>
+      </c>
+      <c r="R4" s="79" t="s">
+        <v>62</v>
+      </c>
+      <c r="S4" s="91" t="s">
+        <v>63</v>
+      </c>
+      <c r="T4" s="31"/>
+      <c r="U4" s="79" t="s">
+        <v>40</v>
+      </c>
+      <c r="V4" s="79" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="84"/>
+      <c r="B5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="72" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="79"/>
+      <c r="K5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="79"/>
+      <c r="R5" s="79"/>
+      <c r="S5" s="91"/>
+      <c r="T5" s="31"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
+    </row>
+    <row r="6" spans="1:22" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="57">
+        <v>868183035889521</v>
+      </c>
+      <c r="F6" s="69"/>
+      <c r="G6" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" s="56"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" s="61"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="N6" s="60"/>
+      <c r="O6" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="P6" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="S6" s="4"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="87" t="s">
+        <v>19</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>2</v>
+      </c>
+      <c r="B7" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="57">
+        <v>868183035883003</v>
+      </c>
+      <c r="F7" s="69"/>
+      <c r="G7" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" s="56"/>
+      <c r="I7" s="73" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L7" s="58" t="s">
+        <v>89</v>
+      </c>
+      <c r="M7" s="58" t="s">
+        <v>82</v>
+      </c>
+      <c r="N7" s="3"/>
+      <c r="O7" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="P7" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="R7" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="S7" s="4"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="88"/>
+      <c r="V7" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>3</v>
+      </c>
+      <c r="B8" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="57">
+        <v>868183033825345</v>
+      </c>
+      <c r="F8" s="69"/>
+      <c r="G8" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" s="56"/>
+      <c r="I8" s="73" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" s="58" t="s">
+        <v>87</v>
+      </c>
+      <c r="K8" s="59"/>
+      <c r="L8" s="58" t="s">
+        <v>89</v>
+      </c>
+      <c r="M8" s="58" t="s">
+        <v>88</v>
+      </c>
+      <c r="N8" s="1"/>
+      <c r="O8" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="R8" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T8" s="14"/>
+      <c r="U8" s="88"/>
+      <c r="V8" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>4</v>
+      </c>
+      <c r="B9" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="55"/>
+      <c r="D9" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="57">
+        <v>868183035904585</v>
+      </c>
+      <c r="F9" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="73" t="s">
+        <v>80</v>
+      </c>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58" t="s">
+        <v>98</v>
+      </c>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="58"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="24"/>
+      <c r="U9" s="88"/>
+      <c r="V9" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>5</v>
+      </c>
+      <c r="B10" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="55"/>
+      <c r="D10" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="57">
+        <v>868183037786501</v>
+      </c>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="58"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="33"/>
+      <c r="U10" s="88"/>
+      <c r="V10" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>6</v>
+      </c>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="58"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="88"/>
+      <c r="V11" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>7</v>
+      </c>
+      <c r="B12" s="55"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="58"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="87" t="s">
+        <v>20</v>
+      </c>
+      <c r="V12" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>8</v>
+      </c>
+      <c r="B13" s="55"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="58"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="88"/>
+      <c r="V13" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>9</v>
+      </c>
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="58"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="58"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="56"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="88"/>
+      <c r="V14" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>10</v>
+      </c>
+      <c r="B15" s="55"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="58"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="56"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="88"/>
+      <c r="V15" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>11</v>
+      </c>
+      <c r="B16" s="55"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="74"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="58"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="58"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="89"/>
+      <c r="V16" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>12</v>
+      </c>
+      <c r="B17" s="55"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="73"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="58"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="58"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="56"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="18"/>
+    </row>
+    <row r="18" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>13</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="74"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="58"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="17"/>
+      <c r="V18" s="19"/>
+    </row>
+    <row r="19" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>14</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="74"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="58"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="V19" s="20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>15</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="74"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="58"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="V20" s="11">
+        <f>COUNTIF($Q$6:$Q$51,"PM")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>16</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="74"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="58"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="17"/>
+      <c r="U21" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="V21" s="11">
+        <f>COUNTIF($Q$6:$Q$51,"PC")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>17</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="74"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="58"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="17"/>
+      <c r="U22" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="V22" s="11">
+        <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>18</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="74"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="58"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="17"/>
+      <c r="U23" s="17"/>
+      <c r="V23" s="19"/>
+    </row>
+    <row r="24" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>19</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="74"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="58"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="17"/>
+      <c r="U24" s="17"/>
+      <c r="V24" s="19"/>
+    </row>
+    <row r="25" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>20</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="74"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="58"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="17"/>
+      <c r="U25" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="V25" s="20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>21</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="74"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="58"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="17"/>
+      <c r="U26" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="V26" s="11">
+        <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>22</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="58"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="17"/>
+      <c r="U27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="V27" s="11">
+        <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>23</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="74"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="58"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="17"/>
+      <c r="U28" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="V28" s="11">
+        <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>24</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="74"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="58"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="17"/>
+      <c r="U29" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="V29" s="11">
+        <f>COUNTIF($R$6:$R$51,"*NG*")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>25</v>
+      </c>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="74"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="17"/>
+      <c r="U30" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="V30" s="11">
+        <f>COUNTIF($R$6:$R$51,"*I/O*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>26</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="74"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="17"/>
+      <c r="U31" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="V31" s="11">
+        <f>COUNTIF($R$6:$R$51,"*LK*")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>27</v>
+      </c>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="74"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="17"/>
+      <c r="U32" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="V32" s="11">
+        <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>28</v>
+      </c>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="74"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="17"/>
+      <c r="U33" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="V33" s="11">
+        <f>COUNTIF($R$6:$R$51,"*SF*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>29</v>
+      </c>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="74"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="17"/>
+      <c r="U34" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="V34" s="11">
+        <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>30</v>
+      </c>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="74"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="11"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="17"/>
+      <c r="U35" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="V35" s="11">
+        <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>31</v>
+      </c>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="74"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="17"/>
+      <c r="U36" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="V36" s="11">
+        <f>COUNTIF($R$6:$R$51,"*KL*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>32</v>
+      </c>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="74"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="11"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="17"/>
+      <c r="U37" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="V37" s="11">
+        <f>SUM(V26:V36)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>33</v>
+      </c>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="74"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="11"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="17"/>
+      <c r="U38" s="17"/>
+      <c r="V38" s="19"/>
+    </row>
+    <row r="39" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>34</v>
+      </c>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="74"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="11"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="17"/>
+      <c r="U39" s="17"/>
+      <c r="V39" s="19"/>
+    </row>
+    <row r="40" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>35</v>
+      </c>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="74"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="11"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="17"/>
+      <c r="U40" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="V40" s="11">
+        <f>COUNTIF($O$6:$O$51,"*DM*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>36</v>
+      </c>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="74"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="11"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="17"/>
+      <c r="U41" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="V41" s="11">
+        <f>COUNTIF($O$6:$O$51,"*KS*")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>37</v>
+      </c>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="74"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="11"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="17"/>
+      <c r="U42" s="17"/>
+      <c r="V42" s="19"/>
+    </row>
+    <row r="43" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>38</v>
+      </c>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="74"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="11"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="17"/>
+      <c r="U43" s="17"/>
+      <c r="V43" s="19"/>
+    </row>
+    <row r="44" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>39</v>
+      </c>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="74"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="11"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="17"/>
+      <c r="U44" s="17"/>
+      <c r="V44" s="19"/>
+    </row>
+    <row r="45" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>40</v>
+      </c>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="74"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="11"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="17"/>
+      <c r="U45" s="17">
+        <f>COUNTIF(J6:J17,"*ACC*")</f>
+        <v>0</v>
+      </c>
+      <c r="V45" s="19"/>
+    </row>
+    <row r="46" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>41</v>
+      </c>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="74"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="11"/>
+      <c r="S46" s="4"/>
+      <c r="T46" s="17"/>
+      <c r="U46" s="17">
+        <f>COUNTIF(J7:J18,"*MCU*")</f>
+        <v>0</v>
+      </c>
+      <c r="V46" s="19"/>
+    </row>
+    <row r="47" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>42</v>
+      </c>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="74"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="11"/>
+      <c r="S47" s="4"/>
+      <c r="T47" s="17"/>
+      <c r="U47" s="17">
+        <f>COUNTIF(J8:J19,"*GPS*")</f>
+        <v>0</v>
+      </c>
+      <c r="V47" s="19"/>
+    </row>
+    <row r="48" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>43</v>
+      </c>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="74"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="11"/>
+      <c r="S48" s="4"/>
+      <c r="T48" s="41">
+        <f>COUNTIF(J9:J20,"*GSM*")</f>
+        <v>0</v>
+      </c>
+      <c r="U48" s="42"/>
+      <c r="V48" s="43"/>
+    </row>
+    <row r="49" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>44</v>
+      </c>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="74"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="11"/>
+      <c r="S49" s="4"/>
+      <c r="T49" s="41"/>
+      <c r="U49" s="42"/>
+      <c r="V49" s="43"/>
+    </row>
+    <row r="50" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="35">
+        <v>45</v>
+      </c>
+      <c r="B50" s="36"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="37"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="38"/>
+      <c r="I50" s="75"/>
+      <c r="J50" s="38"/>
+      <c r="K50" s="38"/>
+      <c r="L50" s="38"/>
+      <c r="M50" s="38"/>
+      <c r="N50" s="38"/>
+      <c r="O50" s="38"/>
+      <c r="P50" s="38"/>
+      <c r="Q50" s="35"/>
+      <c r="R50" s="34"/>
+      <c r="S50" s="35"/>
+      <c r="T50" s="41"/>
+      <c r="U50" s="42"/>
+      <c r="V50" s="43"/>
+    </row>
+    <row r="51" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>46</v>
+      </c>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="74"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="11"/>
+      <c r="S51" s="11"/>
+      <c r="T51" s="41"/>
+      <c r="U51" s="42"/>
+      <c r="V51" s="43"/>
+    </row>
+    <row r="52" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>47</v>
+      </c>
+      <c r="B52" s="39"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="39"/>
+      <c r="F52" s="39"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="39"/>
+      <c r="I52" s="76"/>
+      <c r="J52" s="39"/>
+      <c r="K52" s="39"/>
+      <c r="L52" s="40"/>
+      <c r="M52" s="39"/>
+      <c r="N52" s="39"/>
+      <c r="O52" s="39"/>
+      <c r="P52" s="39"/>
+      <c r="Q52" s="39"/>
+      <c r="R52" s="39"/>
+      <c r="S52" s="39"/>
+      <c r="T52" s="41"/>
+      <c r="U52" s="42"/>
+      <c r="V52" s="43"/>
+    </row>
+    <row r="53" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <v>48</v>
+      </c>
+      <c r="B53" s="39"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="39"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="39"/>
+      <c r="I53" s="76"/>
+      <c r="J53" s="39"/>
+      <c r="K53" s="39"/>
+      <c r="L53" s="40"/>
+      <c r="M53" s="39"/>
+      <c r="N53" s="22"/>
+      <c r="O53" s="22"/>
+      <c r="P53" s="39"/>
+      <c r="Q53" s="39"/>
+      <c r="R53" s="39"/>
+      <c r="S53" s="39"/>
+      <c r="T53" s="41"/>
+      <c r="U53" s="42"/>
+      <c r="V53" s="43"/>
+    </row>
+    <row r="54" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <v>49</v>
+      </c>
+      <c r="B54" s="39"/>
+      <c r="C54" s="39"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="39"/>
+      <c r="F54" s="39"/>
+      <c r="G54" s="39"/>
+      <c r="H54" s="39"/>
+      <c r="I54" s="76"/>
+      <c r="J54" s="39"/>
+      <c r="K54" s="39"/>
+      <c r="L54" s="40"/>
+      <c r="M54" s="39"/>
+      <c r="N54" s="22"/>
+      <c r="O54" s="22"/>
+      <c r="P54" s="39"/>
+      <c r="Q54" s="39"/>
+      <c r="R54" s="39"/>
+      <c r="S54" s="39"/>
+      <c r="T54" s="41"/>
+      <c r="U54" s="42"/>
+      <c r="V54" s="43"/>
+    </row>
+    <row r="55" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <v>50</v>
+      </c>
+      <c r="B55" s="39"/>
+      <c r="C55" s="39"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="39"/>
+      <c r="F55" s="39"/>
+      <c r="G55" s="39"/>
+      <c r="H55" s="39"/>
+      <c r="I55" s="76"/>
+      <c r="J55" s="39"/>
+      <c r="K55" s="39"/>
+      <c r="L55" s="40"/>
+      <c r="M55" s="39"/>
+      <c r="N55" s="22"/>
+      <c r="O55" s="22"/>
+      <c r="P55" s="39"/>
+      <c r="Q55" s="39"/>
+      <c r="R55" s="39"/>
+      <c r="S55" s="39"/>
+      <c r="T55" s="44"/>
+      <c r="U55" s="45"/>
+      <c r="V55" s="46"/>
+    </row>
+    <row r="56" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U56" s="29"/>
+      <c r="V56" s="29"/>
+    </row>
+    <row r="57" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U57" s="29"/>
+      <c r="V57" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="U4:U5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:V57"/>
   <sheetViews>
@@ -1170,42 +2952,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="85"/>
-      <c r="V1" s="85"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
     </row>
     <row r="2" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="88" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="88"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="6"/>
       <c r="H2" s="25"/>
       <c r="I2" s="70"/>
@@ -1248,57 +3030,57 @@
       <c r="V3" s="32"/>
     </row>
     <row r="4" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="83" t="s">
+      <c r="B4" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="83" t="s">
+      <c r="K4" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="83"/>
-      <c r="M4" s="90" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="90" t="s">
+      <c r="N4" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="S4" s="84" t="s">
+      <c r="S4" s="91" t="s">
         <v>63</v>
       </c>
       <c r="T4" s="31"/>
-      <c r="U4" s="83" t="s">
+      <c r="U4" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="V4" s="83" t="s">
+      <c r="V4" s="79" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="89"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -1323,23 +3105,23 @@
       <c r="I5" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="83"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="67" t="s">
         <v>13</v>
       </c>
       <c r="L5" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="91"/>
-      <c r="N5" s="91"/>
-      <c r="O5" s="83"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="83"/>
-      <c r="S5" s="84"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="79"/>
+      <c r="R5" s="79"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="31"/>
-      <c r="U5" s="83"/>
-      <c r="V5" s="83"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
     </row>
     <row r="6" spans="1:22" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1394,7 +3176,7 @@
         <v>93</v>
       </c>
       <c r="T6" s="66"/>
-      <c r="U6" s="79" t="s">
+      <c r="U6" s="87" t="s">
         <v>19</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1424,7 +3206,7 @@
       <c r="R7" s="56"/>
       <c r="S7" s="4"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="80"/>
+      <c r="U7" s="88"/>
       <c r="V7" s="4" t="s">
         <v>36</v>
       </c>
@@ -1452,7 +3234,7 @@
       <c r="R8" s="56"/>
       <c r="S8" s="4"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="80"/>
+      <c r="U8" s="88"/>
       <c r="V8" s="4" t="s">
         <v>22</v>
       </c>
@@ -1480,7 +3262,7 @@
       <c r="R9" s="56"/>
       <c r="S9" s="4"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="80"/>
+      <c r="U9" s="88"/>
       <c r="V9" s="4" t="s">
         <v>60</v>
       </c>
@@ -1508,7 +3290,7 @@
       <c r="R10" s="56"/>
       <c r="S10" s="4"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="80"/>
+      <c r="U10" s="88"/>
       <c r="V10" s="4" t="s">
         <v>32</v>
       </c>
@@ -1536,7 +3318,7 @@
       <c r="R11" s="56"/>
       <c r="S11" s="4"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="80"/>
+      <c r="U11" s="88"/>
       <c r="V11" s="4" t="s">
         <v>31</v>
       </c>
@@ -1564,7 +3346,7 @@
       <c r="R12" s="56"/>
       <c r="S12" s="4"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="79" t="s">
+      <c r="U12" s="87" t="s">
         <v>20</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1594,7 +3376,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="80"/>
+      <c r="U13" s="88"/>
       <c r="V13" s="4" t="s">
         <v>38</v>
       </c>
@@ -1622,7 +3404,7 @@
       <c r="R14" s="56"/>
       <c r="S14" s="4"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="80"/>
+      <c r="U14" s="88"/>
       <c r="V14" s="4" t="s">
         <v>37</v>
       </c>
@@ -1650,7 +3432,7 @@
       <c r="R15" s="56"/>
       <c r="S15" s="4"/>
       <c r="T15" s="17"/>
-      <c r="U15" s="80"/>
+      <c r="U15" s="88"/>
       <c r="V15" s="4" t="s">
         <v>25</v>
       </c>
@@ -1678,7 +3460,7 @@
       <c r="R16" s="56"/>
       <c r="S16" s="4"/>
       <c r="T16" s="17"/>
-      <c r="U16" s="81"/>
+      <c r="U16" s="89"/>
       <c r="V16" s="4" t="s">
         <v>26</v>
       </c>
@@ -2812,6 +4594,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2823,1764 +4612,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:V57"/>
-  <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6:M8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.42578125" style="23" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="23" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="23" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" style="23" customWidth="1"/>
-    <col min="5" max="5" width="32.42578125" style="23" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" style="23" customWidth="1"/>
-    <col min="7" max="7" width="17" style="23" customWidth="1"/>
-    <col min="8" max="8" width="35.42578125" style="23" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" style="77" customWidth="1"/>
-    <col min="10" max="10" width="53" style="23" customWidth="1"/>
-    <col min="11" max="11" width="33.42578125" style="23" customWidth="1"/>
-    <col min="12" max="12" width="30.7109375" style="30" customWidth="1"/>
-    <col min="13" max="13" width="58" style="23" customWidth="1"/>
-    <col min="14" max="14" width="21.85546875" style="23" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="23" customWidth="1"/>
-    <col min="16" max="16" width="37.7109375" style="23" customWidth="1"/>
-    <col min="17" max="17" width="23.42578125" style="23" customWidth="1"/>
-    <col min="18" max="18" width="21.140625" style="23" customWidth="1"/>
-    <col min="19" max="19" width="26.85546875" style="23" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" style="23"/>
-    <col min="21" max="21" width="30.5703125" style="23" customWidth="1"/>
-    <col min="22" max="22" width="21.42578125" style="23" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="23"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="85"/>
-      <c r="V1" s="85"/>
-    </row>
-    <row r="2" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="88" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" s="88"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
-      <c r="V2" s="32"/>
-    </row>
-    <row r="3" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="31"/>
-      <c r="U3" s="31"/>
-      <c r="V3" s="32"/>
-    </row>
-    <row r="4" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="89" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="83" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" s="83" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="83"/>
-      <c r="M4" s="90" t="s">
-        <v>43</v>
-      </c>
-      <c r="N4" s="90" t="s">
-        <v>11</v>
-      </c>
-      <c r="O4" s="83" t="s">
-        <v>8</v>
-      </c>
-      <c r="P4" s="82" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q4" s="83" t="s">
-        <v>40</v>
-      </c>
-      <c r="R4" s="83" t="s">
-        <v>62</v>
-      </c>
-      <c r="S4" s="84" t="s">
-        <v>63</v>
-      </c>
-      <c r="T4" s="31"/>
-      <c r="U4" s="83" t="s">
-        <v>40</v>
-      </c>
-      <c r="V4" s="83" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="89"/>
-      <c r="B5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="72" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="83"/>
-      <c r="K5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="M5" s="91"/>
-      <c r="N5" s="91"/>
-      <c r="O5" s="83"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="83"/>
-      <c r="S5" s="84"/>
-      <c r="T5" s="31"/>
-      <c r="U5" s="83"/>
-      <c r="V5" s="83"/>
-    </row>
-    <row r="6" spans="1:22" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>1</v>
-      </c>
-      <c r="B6" s="55" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" s="55" t="s">
-        <v>91</v>
-      </c>
-      <c r="D6" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="57">
-        <v>868183035889521</v>
-      </c>
-      <c r="F6" s="69"/>
-      <c r="G6" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="H6" s="56"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="58" t="s">
-        <v>75</v>
-      </c>
-      <c r="K6" s="61"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="58" t="s">
-        <v>76</v>
-      </c>
-      <c r="N6" s="60"/>
-      <c r="O6" s="58" t="s">
-        <v>77</v>
-      </c>
-      <c r="P6" s="58" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="R6" s="56" t="s">
-        <v>31</v>
-      </c>
-      <c r="S6" s="4"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="79" t="s">
-        <v>19</v>
-      </c>
-      <c r="V6" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>2</v>
-      </c>
-      <c r="B7" s="55" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7" s="55" t="s">
-        <v>91</v>
-      </c>
-      <c r="D7" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="57">
-        <v>868183035883003</v>
-      </c>
-      <c r="F7" s="69"/>
-      <c r="G7" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="73" t="s">
-        <v>80</v>
-      </c>
-      <c r="J7" s="58" t="s">
-        <v>81</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L7" s="58" t="s">
-        <v>89</v>
-      </c>
-      <c r="M7" s="58" t="s">
-        <v>82</v>
-      </c>
-      <c r="N7" s="3"/>
-      <c r="O7" s="58" t="s">
-        <v>83</v>
-      </c>
-      <c r="P7" s="58" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="R7" s="56" t="s">
-        <v>85</v>
-      </c>
-      <c r="S7" s="4"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="80"/>
-      <c r="V7" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>3</v>
-      </c>
-      <c r="B8" s="55" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="55" t="s">
-        <v>91</v>
-      </c>
-      <c r="D8" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="57">
-        <v>868183033825345</v>
-      </c>
-      <c r="F8" s="69"/>
-      <c r="G8" s="56" t="s">
-        <v>69</v>
-      </c>
-      <c r="H8" s="56"/>
-      <c r="I8" s="73" t="s">
-        <v>86</v>
-      </c>
-      <c r="J8" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="K8" s="59"/>
-      <c r="L8" s="58" t="s">
-        <v>89</v>
-      </c>
-      <c r="M8" s="58" t="s">
-        <v>88</v>
-      </c>
-      <c r="N8" s="1"/>
-      <c r="O8" s="58" t="s">
-        <v>83</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="R8" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="T8" s="14"/>
-      <c r="U8" s="80"/>
-      <c r="V8" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>4</v>
-      </c>
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="56"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="24"/>
-      <c r="U9" s="80"/>
-      <c r="V9" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>5</v>
-      </c>
-      <c r="B10" s="55"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="58"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="56"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="33"/>
-      <c r="U10" s="80"/>
-      <c r="V10" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>6</v>
-      </c>
-      <c r="B11" s="55"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="58"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="56"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="80"/>
-      <c r="V11" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>7</v>
-      </c>
-      <c r="B12" s="55"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="58"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="56"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="79" t="s">
-        <v>20</v>
-      </c>
-      <c r="V12" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>8</v>
-      </c>
-      <c r="B13" s="55"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="73"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="58"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="58"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="14"/>
-      <c r="U13" s="80"/>
-      <c r="V13" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>9</v>
-      </c>
-      <c r="B14" s="55"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="73"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="58"/>
-      <c r="M14" s="58"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="58"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="56"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="14"/>
-      <c r="U14" s="80"/>
-      <c r="V14" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>10</v>
-      </c>
-      <c r="B15" s="55"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="74"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="58"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="58"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="56"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="17"/>
-      <c r="U15" s="80"/>
-      <c r="V15" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>11</v>
-      </c>
-      <c r="B16" s="55"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="74"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="58"/>
-      <c r="M16" s="58"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="58"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="56"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="17"/>
-      <c r="U16" s="81"/>
-      <c r="V16" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>12</v>
-      </c>
-      <c r="B17" s="55"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="73"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="58"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="58"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="56"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="17"/>
-      <c r="U17" s="14"/>
-      <c r="V17" s="18"/>
-    </row>
-    <row r="18" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>13</v>
-      </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="74"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="58"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="17"/>
-      <c r="U18" s="17"/>
-      <c r="V18" s="19"/>
-    </row>
-    <row r="19" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <v>14</v>
-      </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="74"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="58"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="17"/>
-      <c r="U19" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="V19" s="20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>15</v>
-      </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="74"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="58"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="17"/>
-      <c r="U20" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="V20" s="11">
-        <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>16</v>
-      </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="74"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="58"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="17"/>
-      <c r="U21" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="V21" s="11">
-        <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
-        <v>17</v>
-      </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="74"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="58"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="17"/>
-      <c r="U22" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="V22" s="11">
-        <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <v>18</v>
-      </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="74"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="58"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="11"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="17"/>
-      <c r="U23" s="17"/>
-      <c r="V23" s="19"/>
-    </row>
-    <row r="24" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
-        <v>19</v>
-      </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="74"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="58"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="11"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="17"/>
-      <c r="U24" s="17"/>
-      <c r="V24" s="19"/>
-    </row>
-    <row r="25" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
-        <v>20</v>
-      </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="74"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="58"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="11"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="17"/>
-      <c r="U25" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="V25" s="20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <v>21</v>
-      </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="74"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="58"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="11"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="17"/>
-      <c r="U26" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="V26" s="11">
-        <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
-        <v>22</v>
-      </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="56"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="74"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="58"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="11"/>
-      <c r="S27" s="4"/>
-      <c r="T27" s="17"/>
-      <c r="U27" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="V27" s="11">
-        <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
-        <v>23</v>
-      </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="74"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="58"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="11"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="17"/>
-      <c r="U28" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="V28" s="11">
-        <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
-        <v>24</v>
-      </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="56"/>
-      <c r="G29" s="56"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="74"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="58"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="11"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="17"/>
-      <c r="U29" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="V29" s="11">
-        <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
-        <v>25</v>
-      </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="74"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="11"/>
-      <c r="S30" s="4"/>
-      <c r="T30" s="17"/>
-      <c r="U30" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="V30" s="11">
-        <f>COUNTIF($R$6:$R$51,"*I/O*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
-        <v>26</v>
-      </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="74"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="11"/>
-      <c r="S31" s="4"/>
-      <c r="T31" s="17"/>
-      <c r="U31" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="V31" s="11">
-        <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
-        <v>27</v>
-      </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="74"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="11"/>
-      <c r="S32" s="4"/>
-      <c r="T32" s="17"/>
-      <c r="U32" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="V32" s="11">
-        <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
-        <v>28</v>
-      </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="74"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="11"/>
-      <c r="S33" s="4"/>
-      <c r="T33" s="17"/>
-      <c r="U33" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="V33" s="11">
-        <f>COUNTIF($R$6:$R$51,"*SF*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
-        <v>29</v>
-      </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="74"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="11"/>
-      <c r="S34" s="4"/>
-      <c r="T34" s="17"/>
-      <c r="U34" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="V34" s="11">
-        <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
-        <v>30</v>
-      </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="74"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="11"/>
-      <c r="S35" s="4"/>
-      <c r="T35" s="17"/>
-      <c r="U35" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="V35" s="11">
-        <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
-        <v>31</v>
-      </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="74"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="4"/>
-      <c r="R36" s="11"/>
-      <c r="S36" s="4"/>
-      <c r="T36" s="17"/>
-      <c r="U36" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="V36" s="11">
-        <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
-        <v>32</v>
-      </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="74"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="4"/>
-      <c r="R37" s="11"/>
-      <c r="S37" s="4"/>
-      <c r="T37" s="17"/>
-      <c r="U37" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="V37" s="11">
-        <f>SUM(V26:V36)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
-        <v>33</v>
-      </c>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="74"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="4"/>
-      <c r="R38" s="11"/>
-      <c r="S38" s="4"/>
-      <c r="T38" s="17"/>
-      <c r="U38" s="17"/>
-      <c r="V38" s="19"/>
-    </row>
-    <row r="39" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
-        <v>34</v>
-      </c>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="74"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="4"/>
-      <c r="R39" s="11"/>
-      <c r="S39" s="4"/>
-      <c r="T39" s="17"/>
-      <c r="U39" s="17"/>
-      <c r="V39" s="19"/>
-    </row>
-    <row r="40" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="4">
-        <v>35</v>
-      </c>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="74"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="4"/>
-      <c r="R40" s="11"/>
-      <c r="S40" s="4"/>
-      <c r="T40" s="17"/>
-      <c r="U40" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="V40" s="11">
-        <f>COUNTIF($O$6:$O$51,"*DM*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="4">
-        <v>36</v>
-      </c>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="74"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="4"/>
-      <c r="R41" s="11"/>
-      <c r="S41" s="4"/>
-      <c r="T41" s="17"/>
-      <c r="U41" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="V41" s="11">
-        <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="4">
-        <v>37</v>
-      </c>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="74"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
-      <c r="Q42" s="4"/>
-      <c r="R42" s="11"/>
-      <c r="S42" s="4"/>
-      <c r="T42" s="17"/>
-      <c r="U42" s="17"/>
-      <c r="V42" s="19"/>
-    </row>
-    <row r="43" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="4">
-        <v>38</v>
-      </c>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="74"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="4"/>
-      <c r="R43" s="11"/>
-      <c r="S43" s="4"/>
-      <c r="T43" s="17"/>
-      <c r="U43" s="17"/>
-      <c r="V43" s="19"/>
-    </row>
-    <row r="44" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="4">
-        <v>39</v>
-      </c>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="74"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
-      <c r="Q44" s="4"/>
-      <c r="R44" s="11"/>
-      <c r="S44" s="4"/>
-      <c r="T44" s="17"/>
-      <c r="U44" s="17"/>
-      <c r="V44" s="19"/>
-    </row>
-    <row r="45" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="4">
-        <v>40</v>
-      </c>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="74"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
-      <c r="Q45" s="4"/>
-      <c r="R45" s="11"/>
-      <c r="S45" s="4"/>
-      <c r="T45" s="17"/>
-      <c r="U45" s="17">
-        <f>COUNTIF(J6:J17,"*ACC*")</f>
-        <v>0</v>
-      </c>
-      <c r="V45" s="19"/>
-    </row>
-    <row r="46" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="4">
-        <v>41</v>
-      </c>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="74"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
-      <c r="Q46" s="4"/>
-      <c r="R46" s="11"/>
-      <c r="S46" s="4"/>
-      <c r="T46" s="17"/>
-      <c r="U46" s="17">
-        <f>COUNTIF(J7:J18,"*MCU*")</f>
-        <v>0</v>
-      </c>
-      <c r="V46" s="19"/>
-    </row>
-    <row r="47" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="4">
-        <v>42</v>
-      </c>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="74"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
-      <c r="Q47" s="4"/>
-      <c r="R47" s="11"/>
-      <c r="S47" s="4"/>
-      <c r="T47" s="17"/>
-      <c r="U47" s="17">
-        <f>COUNTIF(J8:J19,"*GPS*")</f>
-        <v>0</v>
-      </c>
-      <c r="V47" s="19"/>
-    </row>
-    <row r="48" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="4">
-        <v>43</v>
-      </c>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="74"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="1"/>
-      <c r="Q48" s="4"/>
-      <c r="R48" s="11"/>
-      <c r="S48" s="4"/>
-      <c r="T48" s="41">
-        <f>COUNTIF(J9:J20,"*GSM*")</f>
-        <v>0</v>
-      </c>
-      <c r="U48" s="42"/>
-      <c r="V48" s="43"/>
-    </row>
-    <row r="49" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="4">
-        <v>44</v>
-      </c>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="74"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
-      <c r="Q49" s="4"/>
-      <c r="R49" s="11"/>
-      <c r="S49" s="4"/>
-      <c r="T49" s="41"/>
-      <c r="U49" s="42"/>
-      <c r="V49" s="43"/>
-    </row>
-    <row r="50" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="35">
-        <v>45</v>
-      </c>
-      <c r="B50" s="36"/>
-      <c r="C50" s="36"/>
-      <c r="D50" s="34"/>
-      <c r="E50" s="37"/>
-      <c r="F50" s="34"/>
-      <c r="G50" s="34"/>
-      <c r="H50" s="38"/>
-      <c r="I50" s="75"/>
-      <c r="J50" s="38"/>
-      <c r="K50" s="38"/>
-      <c r="L50" s="38"/>
-      <c r="M50" s="38"/>
-      <c r="N50" s="38"/>
-      <c r="O50" s="38"/>
-      <c r="P50" s="38"/>
-      <c r="Q50" s="35"/>
-      <c r="R50" s="34"/>
-      <c r="S50" s="35"/>
-      <c r="T50" s="41"/>
-      <c r="U50" s="42"/>
-      <c r="V50" s="43"/>
-    </row>
-    <row r="51" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="4">
-        <v>46</v>
-      </c>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="74"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
-      <c r="P51" s="1"/>
-      <c r="Q51" s="4"/>
-      <c r="R51" s="11"/>
-      <c r="S51" s="11"/>
-      <c r="T51" s="41"/>
-      <c r="U51" s="42"/>
-      <c r="V51" s="43"/>
-    </row>
-    <row r="52" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="4">
-        <v>47</v>
-      </c>
-      <c r="B52" s="39"/>
-      <c r="C52" s="39"/>
-      <c r="D52" s="39"/>
-      <c r="E52" s="39"/>
-      <c r="F52" s="39"/>
-      <c r="G52" s="39"/>
-      <c r="H52" s="39"/>
-      <c r="I52" s="76"/>
-      <c r="J52" s="39"/>
-      <c r="K52" s="39"/>
-      <c r="L52" s="40"/>
-      <c r="M52" s="39"/>
-      <c r="N52" s="39"/>
-      <c r="O52" s="39"/>
-      <c r="P52" s="39"/>
-      <c r="Q52" s="39"/>
-      <c r="R52" s="39"/>
-      <c r="S52" s="39"/>
-      <c r="T52" s="41"/>
-      <c r="U52" s="42"/>
-      <c r="V52" s="43"/>
-    </row>
-    <row r="53" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="4">
-        <v>48</v>
-      </c>
-      <c r="B53" s="39"/>
-      <c r="C53" s="39"/>
-      <c r="D53" s="39"/>
-      <c r="E53" s="39"/>
-      <c r="F53" s="39"/>
-      <c r="G53" s="39"/>
-      <c r="H53" s="39"/>
-      <c r="I53" s="76"/>
-      <c r="J53" s="39"/>
-      <c r="K53" s="39"/>
-      <c r="L53" s="40"/>
-      <c r="M53" s="39"/>
-      <c r="N53" s="22"/>
-      <c r="O53" s="22"/>
-      <c r="P53" s="39"/>
-      <c r="Q53" s="39"/>
-      <c r="R53" s="39"/>
-      <c r="S53" s="39"/>
-      <c r="T53" s="41"/>
-      <c r="U53" s="42"/>
-      <c r="V53" s="43"/>
-    </row>
-    <row r="54" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="4">
-        <v>49</v>
-      </c>
-      <c r="B54" s="39"/>
-      <c r="C54" s="39"/>
-      <c r="D54" s="39"/>
-      <c r="E54" s="39"/>
-      <c r="F54" s="39"/>
-      <c r="G54" s="39"/>
-      <c r="H54" s="39"/>
-      <c r="I54" s="76"/>
-      <c r="J54" s="39"/>
-      <c r="K54" s="39"/>
-      <c r="L54" s="40"/>
-      <c r="M54" s="39"/>
-      <c r="N54" s="22"/>
-      <c r="O54" s="22"/>
-      <c r="P54" s="39"/>
-      <c r="Q54" s="39"/>
-      <c r="R54" s="39"/>
-      <c r="S54" s="39"/>
-      <c r="T54" s="41"/>
-      <c r="U54" s="42"/>
-      <c r="V54" s="43"/>
-    </row>
-    <row r="55" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="4">
-        <v>50</v>
-      </c>
-      <c r="B55" s="39"/>
-      <c r="C55" s="39"/>
-      <c r="D55" s="39"/>
-      <c r="E55" s="39"/>
-      <c r="F55" s="39"/>
-      <c r="G55" s="39"/>
-      <c r="H55" s="39"/>
-      <c r="I55" s="76"/>
-      <c r="J55" s="39"/>
-      <c r="K55" s="39"/>
-      <c r="L55" s="40"/>
-      <c r="M55" s="39"/>
-      <c r="N55" s="22"/>
-      <c r="O55" s="22"/>
-      <c r="P55" s="39"/>
-      <c r="Q55" s="39"/>
-      <c r="R55" s="39"/>
-      <c r="S55" s="39"/>
-      <c r="T55" s="44"/>
-      <c r="U55" s="45"/>
-      <c r="V55" s="46"/>
-    </row>
-    <row r="56" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="U56" s="29"/>
-      <c r="V56" s="29"/>
-    </row>
-    <row r="57" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="U57" s="29"/>
-      <c r="V57" s="29"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="A1:V1"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="S4:S5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4592,7 +4623,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:V57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
@@ -4624,42 +4655,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="85"/>
-      <c r="V1" s="85"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
     </row>
     <row r="2" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="88" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="88"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="6"/>
       <c r="H2" s="25"/>
       <c r="I2" s="70"/>
@@ -4702,57 +4733,57 @@
       <c r="V3" s="32"/>
     </row>
     <row r="4" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="83" t="s">
+      <c r="B4" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="83" t="s">
+      <c r="K4" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="83"/>
-      <c r="M4" s="90" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="90" t="s">
+      <c r="N4" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="S4" s="84" t="s">
+      <c r="S4" s="91" t="s">
         <v>63</v>
       </c>
       <c r="T4" s="31"/>
-      <c r="U4" s="83" t="s">
+      <c r="U4" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="V4" s="83" t="s">
+      <c r="V4" s="79" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="89"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -4777,23 +4808,23 @@
       <c r="I5" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="83"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="64" t="s">
         <v>13</v>
       </c>
       <c r="L5" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="91"/>
-      <c r="N5" s="91"/>
-      <c r="O5" s="83"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="83"/>
-      <c r="S5" s="84"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="79"/>
+      <c r="R5" s="79"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="31"/>
-      <c r="U5" s="83"/>
-      <c r="V5" s="83"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
     </row>
     <row r="6" spans="1:22" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -4844,7 +4875,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="63"/>
-      <c r="U6" s="79" t="s">
+      <c r="U6" s="87" t="s">
         <v>19</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -4874,7 +4905,7 @@
       <c r="R7" s="56"/>
       <c r="S7" s="4"/>
       <c r="T7" s="63"/>
-      <c r="U7" s="80"/>
+      <c r="U7" s="88"/>
       <c r="V7" s="4" t="s">
         <v>36</v>
       </c>
@@ -4902,7 +4933,7 @@
       <c r="R8" s="56"/>
       <c r="S8" s="4"/>
       <c r="T8" s="63"/>
-      <c r="U8" s="80"/>
+      <c r="U8" s="88"/>
       <c r="V8" s="4" t="s">
         <v>22</v>
       </c>
@@ -4930,7 +4961,7 @@
       <c r="R9" s="56"/>
       <c r="S9" s="4"/>
       <c r="T9" s="63"/>
-      <c r="U9" s="80"/>
+      <c r="U9" s="88"/>
       <c r="V9" s="4" t="s">
         <v>60</v>
       </c>
@@ -4958,7 +4989,7 @@
       <c r="R10" s="56"/>
       <c r="S10" s="4"/>
       <c r="T10" s="63"/>
-      <c r="U10" s="80"/>
+      <c r="U10" s="88"/>
       <c r="V10" s="4" t="s">
         <v>32</v>
       </c>
@@ -4986,7 +5017,7 @@
       <c r="R11" s="56"/>
       <c r="S11" s="4"/>
       <c r="T11" s="63"/>
-      <c r="U11" s="80"/>
+      <c r="U11" s="88"/>
       <c r="V11" s="4" t="s">
         <v>31</v>
       </c>
@@ -5014,7 +5045,7 @@
       <c r="R12" s="56"/>
       <c r="S12" s="4"/>
       <c r="T12" s="63"/>
-      <c r="U12" s="79" t="s">
+      <c r="U12" s="87" t="s">
         <v>20</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5044,7 +5075,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="63"/>
-      <c r="U13" s="80"/>
+      <c r="U13" s="88"/>
       <c r="V13" s="4" t="s">
         <v>38</v>
       </c>
@@ -5072,7 +5103,7 @@
       <c r="R14" s="56"/>
       <c r="S14" s="4"/>
       <c r="T14" s="63"/>
-      <c r="U14" s="80"/>
+      <c r="U14" s="88"/>
       <c r="V14" s="4" t="s">
         <v>37</v>
       </c>
@@ -5100,7 +5131,7 @@
       <c r="R15" s="56"/>
       <c r="S15" s="4"/>
       <c r="T15" s="17"/>
-      <c r="U15" s="80"/>
+      <c r="U15" s="88"/>
       <c r="V15" s="4" t="s">
         <v>25</v>
       </c>
@@ -5128,7 +5159,7 @@
       <c r="R16" s="56"/>
       <c r="S16" s="4"/>
       <c r="T16" s="17"/>
-      <c r="U16" s="81"/>
+      <c r="U16" s="89"/>
       <c r="V16" s="4" t="s">
         <v>26</v>
       </c>
@@ -6262,13 +6293,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6280,6 +6304,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6323,43 +6354,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="85"/>
-      <c r="V1" s="85"/>
-      <c r="W1" s="85"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
+      <c r="W1" s="80"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="88" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="88"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="6"/>
       <c r="H2" s="25"/>
       <c r="I2" s="25"/>
@@ -6404,42 +6435,42 @@
       <c r="W3" s="32"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="83" t="s">
+      <c r="B4" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="83" t="s">
+      <c r="K4" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="83"/>
-      <c r="M4" s="90" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="90" t="s">
+      <c r="N4" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="79" t="s">
         <v>62</v>
       </c>
       <c r="S4" s="95" t="s">
@@ -6447,15 +6478,15 @@
       </c>
       <c r="T4" s="31"/>
       <c r="U4" s="31"/>
-      <c r="V4" s="83" t="s">
+      <c r="V4" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="W4" s="83" t="s">
+      <c r="W4" s="79" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="89"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -6480,24 +6511,24 @@
       <c r="I5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="83"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="91"/>
-      <c r="N5" s="91"/>
-      <c r="O5" s="83"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="83"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="79"/>
+      <c r="R5" s="79"/>
       <c r="S5" s="96"/>
       <c r="T5" s="31"/>
       <c r="U5" s="31"/>
-      <c r="V5" s="83"/>
-      <c r="W5" s="83"/>
+      <c r="V5" s="79"/>
+      <c r="W5" s="79"/>
     </row>
     <row r="6" spans="1:23" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -6523,7 +6554,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="31"/>
       <c r="U6" s="33"/>
-      <c r="V6" s="79" t="s">
+      <c r="V6" s="87" t="s">
         <v>19</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -6554,7 +6585,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="31"/>
       <c r="U7" s="33"/>
-      <c r="V7" s="80"/>
+      <c r="V7" s="88"/>
       <c r="W7" s="4" t="s">
         <v>36</v>
       </c>
@@ -6583,7 +6614,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="31"/>
       <c r="U8" s="33"/>
-      <c r="V8" s="80"/>
+      <c r="V8" s="88"/>
       <c r="W8" s="4" t="s">
         <v>22</v>
       </c>
@@ -6612,7 +6643,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="33"/>
       <c r="U9" s="33"/>
-      <c r="V9" s="80"/>
+      <c r="V9" s="88"/>
       <c r="W9" s="4" t="s">
         <v>60</v>
       </c>
@@ -6641,7 +6672,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="33"/>
       <c r="U10" s="33"/>
-      <c r="V10" s="80"/>
+      <c r="V10" s="88"/>
       <c r="W10" s="4" t="s">
         <v>32</v>
       </c>
@@ -6670,7 +6701,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="33"/>
       <c r="U11" s="33"/>
-      <c r="V11" s="80"/>
+      <c r="V11" s="88"/>
       <c r="W11" s="4" t="s">
         <v>31</v>
       </c>
@@ -6699,7 +6730,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="33"/>
       <c r="U12" s="33"/>
-      <c r="V12" s="79" t="s">
+      <c r="V12" s="87" t="s">
         <v>20</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -6730,7 +6761,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="33"/>
       <c r="U13" s="33"/>
-      <c r="V13" s="80"/>
+      <c r="V13" s="88"/>
       <c r="W13" s="4" t="s">
         <v>38</v>
       </c>
@@ -6759,7 +6790,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="33"/>
       <c r="U14" s="33"/>
-      <c r="V14" s="80"/>
+      <c r="V14" s="88"/>
       <c r="W14" s="4" t="s">
         <v>37</v>
       </c>
@@ -6788,7 +6819,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="33"/>
       <c r="U15" s="17"/>
-      <c r="V15" s="80"/>
+      <c r="V15" s="88"/>
       <c r="W15" s="4" t="s">
         <v>25</v>
       </c>
@@ -6817,7 +6848,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="33"/>
       <c r="U16" s="17"/>
-      <c r="V16" s="81"/>
+      <c r="V16" s="89"/>
       <c r="W16" s="4" t="s">
         <v>26</v>
       </c>
@@ -9398,6 +9429,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -9408,16 +9449,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang1/02.XuLyBH/XLBH2101_GpsTayNinh.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang1/02.XuLyBH/XLBH2101_GpsTayNinh.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="99">
   <si>
     <t>STT</t>
   </si>
@@ -322,6 +322,18 @@
   </si>
   <si>
     <t>SE.4.00.---06.200630</t>
+  </si>
+  <si>
+    <t>125.212.203.114,15050</t>
+  </si>
+  <si>
+    <t>Thiết bị không chốt GPS</t>
+  </si>
+  <si>
+    <t>Hàn lại linh kiện</t>
+  </si>
+  <si>
+    <t>Tùng</t>
   </si>
 </sst>
 </file>
@@ -700,15 +712,6 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -737,6 +740,15 @@
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1045,8 +1057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1078,43 +1090,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="68"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -1159,58 +1171,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="64" t="s">
+      <c r="A4" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64" t="s">
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="64" t="s">
+      <c r="K4" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="64"/>
-      <c r="M4" s="67" t="s">
+      <c r="L4" s="61"/>
+      <c r="M4" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="67" t="s">
+      <c r="N4" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="64" t="s">
+      <c r="O4" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="65" t="s">
+      <c r="P4" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="64" t="s">
+      <c r="Q4" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="64" t="s">
+      <c r="R4" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="73" t="s">
+      <c r="S4" s="70" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="64" t="s">
+      <c r="U4" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="64" t="s">
+      <c r="V4" s="61" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="69"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -1235,23 +1247,23 @@
       <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="64"/>
+      <c r="J5" s="61"/>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="64"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="64"/>
-      <c r="R5" s="64"/>
-      <c r="S5" s="73"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="70"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="64"/>
-      <c r="V5" s="64"/>
+      <c r="U5" s="61"/>
+      <c r="V5" s="61"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1299,7 +1311,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="13"/>
-      <c r="U6" s="61" t="s">
+      <c r="U6" s="71" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1358,7 +1370,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="13"/>
-      <c r="U7" s="62"/>
+      <c r="U7" s="72"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1415,7 +1427,7 @@
         <v>23</v>
       </c>
       <c r="T8" s="13"/>
-      <c r="U8" s="62"/>
+      <c r="U8" s="72"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1458,7 +1470,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="23"/>
-      <c r="U9" s="62"/>
+      <c r="U9" s="72"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1482,20 +1494,36 @@
       <c r="G10" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="1"/>
+      <c r="H10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10" s="60" t="s">
+        <v>95</v>
+      </c>
+      <c r="J10" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="L10" s="45"/>
-      <c r="M10" s="45"/>
+      <c r="M10" s="45" t="s">
+        <v>97</v>
+      </c>
       <c r="N10" s="1"/>
       <c r="O10" s="45"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="43"/>
+      <c r="P10" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R10" s="43" t="s">
+        <v>21</v>
+      </c>
       <c r="S10" s="4"/>
       <c r="T10" s="32"/>
-      <c r="U10" s="62"/>
+      <c r="U10" s="72"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1524,7 +1552,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="13"/>
-      <c r="U11" s="62"/>
+      <c r="U11" s="72"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1553,7 +1581,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="13"/>
-      <c r="U12" s="61" t="s">
+      <c r="U12" s="71" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1584,7 +1612,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="13"/>
-      <c r="U13" s="62"/>
+      <c r="U13" s="72"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1613,7 +1641,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="13"/>
-      <c r="U14" s="62"/>
+      <c r="U14" s="72"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1642,7 +1670,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="62"/>
+      <c r="U15" s="72"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1671,7 +1699,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="63"/>
+      <c r="U16" s="73"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -1822,7 +1850,7 @@
       </c>
       <c r="V21" s="11">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W21" s="16"/>
     </row>
@@ -2035,7 +2063,7 @@
       </c>
       <c r="V28" s="11">
         <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W28" s="16"/>
     </row>
@@ -2323,7 +2351,7 @@
       </c>
       <c r="V37" s="11">
         <f>SUM(V26:V36)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W37" s="16"/>
     </row>
@@ -2563,7 +2591,7 @@
       </c>
       <c r="V45" s="11">
         <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 3-20*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W45" s="11">
         <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 1-21*")</f>
@@ -2902,6 +2930,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="P4:P5"/>
@@ -2915,11 +2948,6 @@
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2963,41 +2991,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -3042,58 +3070,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="64" t="s">
+      <c r="A4" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64" t="s">
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="64" t="s">
+      <c r="K4" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="64"/>
-      <c r="M4" s="67" t="s">
+      <c r="L4" s="61"/>
+      <c r="M4" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="67" t="s">
+      <c r="N4" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="64" t="s">
+      <c r="O4" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="65" t="s">
+      <c r="P4" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="64" t="s">
+      <c r="Q4" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="64" t="s">
+      <c r="R4" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="73" t="s">
+      <c r="S4" s="70" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="64" t="s">
+      <c r="U4" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="64" t="s">
+      <c r="V4" s="61" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="69"/>
       <c r="B5" s="50" t="s">
         <v>1</v>
       </c>
@@ -3118,23 +3146,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="64"/>
+      <c r="J5" s="61"/>
       <c r="K5" s="50" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="64"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="64"/>
-      <c r="R5" s="64"/>
-      <c r="S5" s="73"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="70"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="64"/>
-      <c r="V5" s="64"/>
+      <c r="U5" s="61"/>
+      <c r="V5" s="61"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3190,7 +3218,7 @@
         <v>91</v>
       </c>
       <c r="T6" s="49"/>
-      <c r="U6" s="61" t="s">
+      <c r="U6" s="71" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3221,7 +3249,7 @@
       <c r="R7" s="43"/>
       <c r="S7" s="4"/>
       <c r="T7" s="49"/>
-      <c r="U7" s="62"/>
+      <c r="U7" s="72"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3250,7 +3278,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="49"/>
-      <c r="U8" s="62"/>
+      <c r="U8" s="72"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3279,7 +3307,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="49"/>
-      <c r="U9" s="62"/>
+      <c r="U9" s="72"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3308,7 +3336,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="49"/>
-      <c r="U10" s="62"/>
+      <c r="U10" s="72"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3337,7 +3365,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="49"/>
-      <c r="U11" s="62"/>
+      <c r="U11" s="72"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3366,7 +3394,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="49"/>
-      <c r="U12" s="61" t="s">
+      <c r="U12" s="71" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3397,7 +3425,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="49"/>
-      <c r="U13" s="62"/>
+      <c r="U13" s="72"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3426,7 +3454,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="49"/>
-      <c r="U14" s="62"/>
+      <c r="U14" s="72"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3455,7 +3483,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="62"/>
+      <c r="U15" s="72"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3484,7 +3512,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="63"/>
+      <c r="U16" s="73"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4715,13 +4743,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4733,6 +4754,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4776,41 +4804,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -4855,58 +4883,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="64" t="s">
+      <c r="A4" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64" t="s">
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="64" t="s">
+      <c r="K4" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="64"/>
-      <c r="M4" s="67" t="s">
+      <c r="L4" s="61"/>
+      <c r="M4" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="67" t="s">
+      <c r="N4" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="64" t="s">
+      <c r="O4" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="65" t="s">
+      <c r="P4" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="64" t="s">
+      <c r="Q4" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="64" t="s">
+      <c r="R4" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="73" t="s">
+      <c r="S4" s="70" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="64" t="s">
+      <c r="U4" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="64" t="s">
+      <c r="V4" s="61" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="69"/>
       <c r="B5" s="53" t="s">
         <v>1</v>
       </c>
@@ -4931,23 +4959,23 @@
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="64"/>
+      <c r="J5" s="61"/>
       <c r="K5" s="53" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="64"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="64"/>
-      <c r="R5" s="64"/>
-      <c r="S5" s="73"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="70"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="64"/>
-      <c r="V5" s="64"/>
+      <c r="U5" s="61"/>
+      <c r="V5" s="61"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4999,7 +5027,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="52"/>
-      <c r="U6" s="61" t="s">
+      <c r="U6" s="71" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5030,7 +5058,7 @@
       <c r="R7" s="43"/>
       <c r="S7" s="4"/>
       <c r="T7" s="52"/>
-      <c r="U7" s="62"/>
+      <c r="U7" s="72"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5059,7 +5087,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="52"/>
-      <c r="U8" s="62"/>
+      <c r="U8" s="72"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5088,7 +5116,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="52"/>
-      <c r="U9" s="62"/>
+      <c r="U9" s="72"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5117,7 +5145,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="52"/>
-      <c r="U10" s="62"/>
+      <c r="U10" s="72"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5146,7 +5174,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="52"/>
-      <c r="U11" s="62"/>
+      <c r="U11" s="72"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5175,7 +5203,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="52"/>
-      <c r="U12" s="61" t="s">
+      <c r="U12" s="71" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5206,7 +5234,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="52"/>
-      <c r="U13" s="62"/>
+      <c r="U13" s="72"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5235,7 +5263,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="52"/>
-      <c r="U14" s="62"/>
+      <c r="U14" s="72"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5264,7 +5292,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="62"/>
+      <c r="U15" s="72"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5293,7 +5321,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="63"/>
+      <c r="U16" s="73"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6524,6 +6552,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6535,13 +6570,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6585,43 +6613,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="68"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -6666,58 +6694,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="64" t="s">
+      <c r="A4" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64" t="s">
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="64" t="s">
+      <c r="K4" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="64"/>
-      <c r="M4" s="67" t="s">
+      <c r="L4" s="61"/>
+      <c r="M4" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="67" t="s">
+      <c r="N4" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="64" t="s">
+      <c r="O4" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="65" t="s">
+      <c r="P4" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="64" t="s">
+      <c r="Q4" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="64" t="s">
+      <c r="R4" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="73" t="s">
+      <c r="S4" s="70" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="64" t="s">
+      <c r="U4" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="64" t="s">
+      <c r="V4" s="61" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="69"/>
       <c r="B5" s="50" t="s">
         <v>1</v>
       </c>
@@ -6742,23 +6770,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="64"/>
+      <c r="J5" s="61"/>
       <c r="K5" s="50" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="64"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="64"/>
-      <c r="R5" s="64"/>
-      <c r="S5" s="73"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="70"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="64"/>
-      <c r="V5" s="64"/>
+      <c r="U5" s="61"/>
+      <c r="V5" s="61"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6784,7 +6812,7 @@
       <c r="R6" s="43"/>
       <c r="S6" s="4"/>
       <c r="T6" s="49"/>
-      <c r="U6" s="61" t="s">
+      <c r="U6" s="71" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -6815,7 +6843,7 @@
       <c r="R7" s="43"/>
       <c r="S7" s="4"/>
       <c r="T7" s="49"/>
-      <c r="U7" s="62"/>
+      <c r="U7" s="72"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -6844,7 +6872,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="49"/>
-      <c r="U8" s="62"/>
+      <c r="U8" s="72"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -6873,7 +6901,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="49"/>
-      <c r="U9" s="62"/>
+      <c r="U9" s="72"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -6902,7 +6930,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="49"/>
-      <c r="U10" s="62"/>
+      <c r="U10" s="72"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -6931,7 +6959,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="49"/>
-      <c r="U11" s="62"/>
+      <c r="U11" s="72"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -6960,7 +6988,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="49"/>
-      <c r="U12" s="61" t="s">
+      <c r="U12" s="71" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -6991,7 +7019,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="49"/>
-      <c r="U13" s="62"/>
+      <c r="U13" s="72"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7020,7 +7048,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="49"/>
-      <c r="U14" s="62"/>
+      <c r="U14" s="72"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7049,7 +7077,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="62"/>
+      <c r="U15" s="72"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7078,7 +7106,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="63"/>
+      <c r="U16" s="73"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -8309,13 +8337,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8327,6 +8348,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang1/02.XuLyBH/XLBH2101_GpsTayNinh.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang1/02.XuLyBH/XLBH2101_GpsTayNinh.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="19" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="100">
   <si>
     <t>STT</t>
   </si>
@@ -334,6 +334,9 @@
   </si>
   <si>
     <t>Tùng</t>
+  </si>
+  <si>
+    <t>19/01/2021</t>
   </si>
 </sst>
 </file>
@@ -712,6 +715,15 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -740,15 +752,6 @@
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1057,8 +1060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1090,43 +1093,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="68" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71" t="s">
         <v>84</v>
       </c>
-      <c r="F2" s="68"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -1171,58 +1174,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="61" t="s">
+      <c r="A4" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61" t="s">
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="61" t="s">
+      <c r="K4" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="61"/>
-      <c r="M4" s="64" t="s">
+      <c r="L4" s="64"/>
+      <c r="M4" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="64" t="s">
+      <c r="N4" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="61" t="s">
+      <c r="O4" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="62" t="s">
+      <c r="P4" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="61" t="s">
+      <c r="Q4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="61" t="s">
+      <c r="R4" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="70" t="s">
+      <c r="S4" s="73" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="61" t="s">
+      <c r="U4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="61" t="s">
+      <c r="V4" s="64" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="69"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -1247,23 +1250,23 @@
       <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="61"/>
+      <c r="J5" s="64"/>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="70"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="73"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="61"/>
-      <c r="V5" s="61"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="64"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1311,7 +1314,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="13"/>
-      <c r="U6" s="71" t="s">
+      <c r="U6" s="61" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1370,7 +1373,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="13"/>
-      <c r="U7" s="72"/>
+      <c r="U7" s="62"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1427,7 +1430,7 @@
         <v>23</v>
       </c>
       <c r="T8" s="13"/>
-      <c r="U8" s="72"/>
+      <c r="U8" s="62"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1440,7 +1443,9 @@
       <c r="B9" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="42"/>
+      <c r="C9" s="42" t="s">
+        <v>99</v>
+      </c>
       <c r="D9" s="43" t="s">
         <v>44</v>
       </c>
@@ -1461,16 +1466,28 @@
       <c r="K9" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="L9" s="45"/>
-      <c r="M9" s="45"/>
+      <c r="L9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M9" s="45" t="s">
+        <v>82</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="43"/>
+      <c r="O9" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="43" t="s">
+        <v>24</v>
+      </c>
       <c r="S9" s="4"/>
       <c r="T9" s="23"/>
-      <c r="U9" s="72"/>
+      <c r="U9" s="62"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1483,7 +1500,9 @@
       <c r="B10" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="42"/>
+      <c r="C10" s="42" t="s">
+        <v>99</v>
+      </c>
       <c r="D10" s="43" t="s">
         <v>44</v>
       </c>
@@ -1511,7 +1530,9 @@
         <v>97</v>
       </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="45"/>
+      <c r="O10" s="45" t="s">
+        <v>77</v>
+      </c>
       <c r="P10" s="1" t="s">
         <v>98</v>
       </c>
@@ -1523,7 +1544,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="32"/>
-      <c r="U10" s="72"/>
+      <c r="U10" s="62"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1552,7 +1573,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="13"/>
-      <c r="U11" s="72"/>
+      <c r="U11" s="62"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1581,7 +1602,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="13"/>
-      <c r="U12" s="71" t="s">
+      <c r="U12" s="61" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1612,7 +1633,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="13"/>
-      <c r="U13" s="72"/>
+      <c r="U13" s="62"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1641,7 +1662,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="13"/>
-      <c r="U14" s="72"/>
+      <c r="U14" s="62"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1670,7 +1691,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="72"/>
+      <c r="U15" s="62"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1699,7 +1720,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="73"/>
+      <c r="U16" s="63"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -1818,7 +1839,7 @@
       </c>
       <c r="V20" s="11">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="16"/>
     </row>
@@ -2287,7 +2308,7 @@
       </c>
       <c r="V35" s="11">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W35" s="16"/>
     </row>
@@ -2351,7 +2372,7 @@
       </c>
       <c r="V37" s="11">
         <f>SUM(V26:V36)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W37" s="16"/>
     </row>
@@ -2930,11 +2951,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="P4:P5"/>
@@ -2948,6 +2964,11 @@
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2991,41 +3012,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -3070,58 +3091,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="61" t="s">
+      <c r="A4" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61" t="s">
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="61" t="s">
+      <c r="K4" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="61"/>
-      <c r="M4" s="64" t="s">
+      <c r="L4" s="64"/>
+      <c r="M4" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="64" t="s">
+      <c r="N4" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="61" t="s">
+      <c r="O4" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="62" t="s">
+      <c r="P4" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="61" t="s">
+      <c r="Q4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="61" t="s">
+      <c r="R4" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="70" t="s">
+      <c r="S4" s="73" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="61" t="s">
+      <c r="U4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="61" t="s">
+      <c r="V4" s="64" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="69"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="50" t="s">
         <v>1</v>
       </c>
@@ -3146,23 +3167,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="61"/>
+      <c r="J5" s="64"/>
       <c r="K5" s="50" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="70"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="73"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="61"/>
-      <c r="V5" s="61"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="64"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3218,7 +3239,7 @@
         <v>91</v>
       </c>
       <c r="T6" s="49"/>
-      <c r="U6" s="71" t="s">
+      <c r="U6" s="61" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3249,7 +3270,7 @@
       <c r="R7" s="43"/>
       <c r="S7" s="4"/>
       <c r="T7" s="49"/>
-      <c r="U7" s="72"/>
+      <c r="U7" s="62"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3278,7 +3299,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="49"/>
-      <c r="U8" s="72"/>
+      <c r="U8" s="62"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3307,7 +3328,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="49"/>
-      <c r="U9" s="72"/>
+      <c r="U9" s="62"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3336,7 +3357,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="49"/>
-      <c r="U10" s="72"/>
+      <c r="U10" s="62"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3365,7 +3386,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="49"/>
-      <c r="U11" s="72"/>
+      <c r="U11" s="62"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3394,7 +3415,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="49"/>
-      <c r="U12" s="71" t="s">
+      <c r="U12" s="61" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3425,7 +3446,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="49"/>
-      <c r="U13" s="72"/>
+      <c r="U13" s="62"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3454,7 +3475,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="49"/>
-      <c r="U14" s="72"/>
+      <c r="U14" s="62"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3483,7 +3504,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="72"/>
+      <c r="U15" s="62"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3512,7 +3533,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="73"/>
+      <c r="U16" s="63"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4743,6 +4764,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4754,13 +4782,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4771,8 +4792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:S6"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4804,41 +4825,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -4883,58 +4904,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="61" t="s">
+      <c r="A4" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61" t="s">
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="61" t="s">
+      <c r="K4" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="61"/>
-      <c r="M4" s="64" t="s">
+      <c r="L4" s="64"/>
+      <c r="M4" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="64" t="s">
+      <c r="N4" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="61" t="s">
+      <c r="O4" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="62" t="s">
+      <c r="P4" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="61" t="s">
+      <c r="Q4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="61" t="s">
+      <c r="R4" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="70" t="s">
+      <c r="S4" s="73" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="61" t="s">
+      <c r="U4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="61" t="s">
+      <c r="V4" s="64" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="69"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="53" t="s">
         <v>1</v>
       </c>
@@ -4959,23 +4980,23 @@
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="61"/>
+      <c r="J5" s="64"/>
       <c r="K5" s="53" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="70"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="73"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="61"/>
-      <c r="V5" s="61"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="64"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5027,7 +5048,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="52"/>
-      <c r="U6" s="71" t="s">
+      <c r="U6" s="61" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5058,7 +5079,7 @@
       <c r="R7" s="43"/>
       <c r="S7" s="4"/>
       <c r="T7" s="52"/>
-      <c r="U7" s="72"/>
+      <c r="U7" s="62"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5087,7 +5108,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="52"/>
-      <c r="U8" s="72"/>
+      <c r="U8" s="62"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5116,7 +5137,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="52"/>
-      <c r="U9" s="72"/>
+      <c r="U9" s="62"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5145,7 +5166,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="52"/>
-      <c r="U10" s="72"/>
+      <c r="U10" s="62"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5174,7 +5195,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="52"/>
-      <c r="U11" s="72"/>
+      <c r="U11" s="62"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5203,7 +5224,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="52"/>
-      <c r="U12" s="71" t="s">
+      <c r="U12" s="61" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5234,7 +5255,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="52"/>
-      <c r="U13" s="72"/>
+      <c r="U13" s="62"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5263,7 +5284,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="52"/>
-      <c r="U14" s="72"/>
+      <c r="U14" s="62"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5292,7 +5313,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="72"/>
+      <c r="U15" s="62"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5321,7 +5342,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="73"/>
+      <c r="U16" s="63"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6552,13 +6573,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6570,6 +6584,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6613,43 +6634,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="68" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71" t="s">
         <v>84</v>
       </c>
-      <c r="F2" s="68"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -6694,58 +6715,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="61" t="s">
+      <c r="A4" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61" t="s">
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="61" t="s">
+      <c r="K4" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="61"/>
-      <c r="M4" s="64" t="s">
+      <c r="L4" s="64"/>
+      <c r="M4" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="64" t="s">
+      <c r="N4" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="61" t="s">
+      <c r="O4" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="62" t="s">
+      <c r="P4" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="61" t="s">
+      <c r="Q4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="61" t="s">
+      <c r="R4" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="70" t="s">
+      <c r="S4" s="73" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="61" t="s">
+      <c r="U4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="61" t="s">
+      <c r="V4" s="64" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="69"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="50" t="s">
         <v>1</v>
       </c>
@@ -6770,23 +6791,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="61"/>
+      <c r="J5" s="64"/>
       <c r="K5" s="50" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="70"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="73"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="61"/>
-      <c r="V5" s="61"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="64"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6812,7 +6833,7 @@
       <c r="R6" s="43"/>
       <c r="S6" s="4"/>
       <c r="T6" s="49"/>
-      <c r="U6" s="71" t="s">
+      <c r="U6" s="61" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -6843,7 +6864,7 @@
       <c r="R7" s="43"/>
       <c r="S7" s="4"/>
       <c r="T7" s="49"/>
-      <c r="U7" s="72"/>
+      <c r="U7" s="62"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -6872,7 +6893,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="49"/>
-      <c r="U8" s="72"/>
+      <c r="U8" s="62"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -6901,7 +6922,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="49"/>
-      <c r="U9" s="72"/>
+      <c r="U9" s="62"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -6930,7 +6951,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="49"/>
-      <c r="U10" s="72"/>
+      <c r="U10" s="62"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -6959,7 +6980,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="49"/>
-      <c r="U11" s="72"/>
+      <c r="U11" s="62"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -6988,7 +7009,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="49"/>
-      <c r="U12" s="71" t="s">
+      <c r="U12" s="61" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -7019,7 +7040,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="49"/>
-      <c r="U13" s="72"/>
+      <c r="U13" s="62"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7048,7 +7069,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="49"/>
-      <c r="U14" s="72"/>
+      <c r="U14" s="62"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7077,7 +7098,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="72"/>
+      <c r="U15" s="62"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7106,7 +7127,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="73"/>
+      <c r="U16" s="63"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -8337,6 +8358,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8348,13 +8376,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang1/02.XuLyBH/XLBH2101_GpsTayNinh.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang1/02.XuLyBH/XLBH2101_GpsTayNinh.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="100">
   <si>
     <t>STT</t>
   </si>
@@ -715,15 +715,6 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -752,6 +743,15 @@
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1061,7 +1061,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1093,43 +1093,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="68"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -1174,58 +1174,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="64" t="s">
+      <c r="A4" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64" t="s">
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="64" t="s">
+      <c r="K4" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="64"/>
-      <c r="M4" s="67" t="s">
+      <c r="L4" s="61"/>
+      <c r="M4" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="67" t="s">
+      <c r="N4" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="64" t="s">
+      <c r="O4" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="65" t="s">
+      <c r="P4" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="64" t="s">
+      <c r="Q4" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="64" t="s">
+      <c r="R4" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="73" t="s">
+      <c r="S4" s="70" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="64" t="s">
+      <c r="U4" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="64" t="s">
+      <c r="V4" s="61" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="69"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -1250,23 +1250,23 @@
       <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="64"/>
+      <c r="J5" s="61"/>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="64"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="64"/>
-      <c r="R5" s="64"/>
-      <c r="S5" s="73"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="70"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="64"/>
-      <c r="V5" s="64"/>
+      <c r="U5" s="61"/>
+      <c r="V5" s="61"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1314,7 +1314,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="13"/>
-      <c r="U6" s="61" t="s">
+      <c r="U6" s="71" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="13"/>
-      <c r="U7" s="62"/>
+      <c r="U7" s="72"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>23</v>
       </c>
       <c r="T8" s="13"/>
-      <c r="U8" s="62"/>
+      <c r="U8" s="72"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1487,7 +1487,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="23"/>
-      <c r="U9" s="62"/>
+      <c r="U9" s="72"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1544,7 +1544,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="32"/>
-      <c r="U10" s="62"/>
+      <c r="U10" s="72"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1573,7 +1573,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="13"/>
-      <c r="U11" s="62"/>
+      <c r="U11" s="72"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1602,7 +1602,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="13"/>
-      <c r="U12" s="61" t="s">
+      <c r="U12" s="71" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1633,7 +1633,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="13"/>
-      <c r="U13" s="62"/>
+      <c r="U13" s="72"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1662,7 +1662,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="13"/>
-      <c r="U14" s="62"/>
+      <c r="U14" s="72"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1691,7 +1691,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="62"/>
+      <c r="U15" s="72"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1720,7 +1720,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="63"/>
+      <c r="U16" s="73"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2951,6 +2951,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="P4:P5"/>
@@ -2964,11 +2969,6 @@
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2980,7 +2980,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:S6"/>
+      <selection activeCell="E2" sqref="E2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3012,41 +3012,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="68" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="68"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -3091,58 +3093,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="64" t="s">
+      <c r="A4" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64" t="s">
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="64" t="s">
+      <c r="K4" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="64"/>
-      <c r="M4" s="67" t="s">
+      <c r="L4" s="61"/>
+      <c r="M4" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="67" t="s">
+      <c r="N4" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="64" t="s">
+      <c r="O4" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="65" t="s">
+      <c r="P4" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="64" t="s">
+      <c r="Q4" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="64" t="s">
+      <c r="R4" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="73" t="s">
+      <c r="S4" s="70" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="64" t="s">
+      <c r="U4" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="64" t="s">
+      <c r="V4" s="61" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="69"/>
       <c r="B5" s="50" t="s">
         <v>1</v>
       </c>
@@ -3167,23 +3169,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="64"/>
+      <c r="J5" s="61"/>
       <c r="K5" s="50" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="64"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="64"/>
-      <c r="R5" s="64"/>
-      <c r="S5" s="73"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="70"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="64"/>
-      <c r="V5" s="64"/>
+      <c r="U5" s="61"/>
+      <c r="V5" s="61"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3239,7 +3241,7 @@
         <v>91</v>
       </c>
       <c r="T6" s="49"/>
-      <c r="U6" s="61" t="s">
+      <c r="U6" s="71" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3270,7 +3272,7 @@
       <c r="R7" s="43"/>
       <c r="S7" s="4"/>
       <c r="T7" s="49"/>
-      <c r="U7" s="62"/>
+      <c r="U7" s="72"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3299,7 +3301,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="49"/>
-      <c r="U8" s="62"/>
+      <c r="U8" s="72"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3328,7 +3330,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="49"/>
-      <c r="U9" s="62"/>
+      <c r="U9" s="72"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3357,7 +3359,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="49"/>
-      <c r="U10" s="62"/>
+      <c r="U10" s="72"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3386,7 +3388,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="49"/>
-      <c r="U11" s="62"/>
+      <c r="U11" s="72"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3415,7 +3417,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="49"/>
-      <c r="U12" s="61" t="s">
+      <c r="U12" s="71" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3446,7 +3448,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="49"/>
-      <c r="U13" s="62"/>
+      <c r="U13" s="72"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3475,7 +3477,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="49"/>
-      <c r="U14" s="62"/>
+      <c r="U14" s="72"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3504,7 +3506,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="62"/>
+      <c r="U15" s="72"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3533,7 +3535,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="63"/>
+      <c r="U16" s="73"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4764,13 +4766,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4782,6 +4777,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4793,7 +4795,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="E2" sqref="E2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4825,41 +4827,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="68" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="68"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -4904,58 +4908,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="64" t="s">
+      <c r="A4" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64" t="s">
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="64" t="s">
+      <c r="K4" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="64"/>
-      <c r="M4" s="67" t="s">
+      <c r="L4" s="61"/>
+      <c r="M4" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="67" t="s">
+      <c r="N4" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="64" t="s">
+      <c r="O4" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="65" t="s">
+      <c r="P4" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="64" t="s">
+      <c r="Q4" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="64" t="s">
+      <c r="R4" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="73" t="s">
+      <c r="S4" s="70" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="64" t="s">
+      <c r="U4" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="64" t="s">
+      <c r="V4" s="61" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="69"/>
       <c r="B5" s="53" t="s">
         <v>1</v>
       </c>
@@ -4980,23 +4984,23 @@
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="64"/>
+      <c r="J5" s="61"/>
       <c r="K5" s="53" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="64"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="64"/>
-      <c r="R5" s="64"/>
-      <c r="S5" s="73"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="70"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="64"/>
-      <c r="V5" s="64"/>
+      <c r="U5" s="61"/>
+      <c r="V5" s="61"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5048,7 +5052,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="52"/>
-      <c r="U6" s="61" t="s">
+      <c r="U6" s="71" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5079,7 +5083,7 @@
       <c r="R7" s="43"/>
       <c r="S7" s="4"/>
       <c r="T7" s="52"/>
-      <c r="U7" s="62"/>
+      <c r="U7" s="72"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5108,7 +5112,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="52"/>
-      <c r="U8" s="62"/>
+      <c r="U8" s="72"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5137,7 +5141,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="52"/>
-      <c r="U9" s="62"/>
+      <c r="U9" s="72"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5166,7 +5170,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="52"/>
-      <c r="U10" s="62"/>
+      <c r="U10" s="72"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5195,7 +5199,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="52"/>
-      <c r="U11" s="62"/>
+      <c r="U11" s="72"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5224,7 +5228,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="52"/>
-      <c r="U12" s="61" t="s">
+      <c r="U12" s="71" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5255,7 +5259,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="52"/>
-      <c r="U13" s="62"/>
+      <c r="U13" s="72"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5284,7 +5288,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="52"/>
-      <c r="U14" s="62"/>
+      <c r="U14" s="72"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5313,7 +5317,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="62"/>
+      <c r="U15" s="72"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5342,7 +5346,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="63"/>
+      <c r="U16" s="73"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6573,6 +6577,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6584,13 +6595,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6634,43 +6638,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="68"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -6715,58 +6719,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="64" t="s">
+      <c r="A4" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64" t="s">
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="64" t="s">
+      <c r="K4" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="64"/>
-      <c r="M4" s="67" t="s">
+      <c r="L4" s="61"/>
+      <c r="M4" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="67" t="s">
+      <c r="N4" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="64" t="s">
+      <c r="O4" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="65" t="s">
+      <c r="P4" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="64" t="s">
+      <c r="Q4" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="64" t="s">
+      <c r="R4" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="73" t="s">
+      <c r="S4" s="70" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="64" t="s">
+      <c r="U4" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="64" t="s">
+      <c r="V4" s="61" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="69"/>
       <c r="B5" s="50" t="s">
         <v>1</v>
       </c>
@@ -6791,23 +6795,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="64"/>
+      <c r="J5" s="61"/>
       <c r="K5" s="50" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="64"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="64"/>
-      <c r="R5" s="64"/>
-      <c r="S5" s="73"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="70"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="64"/>
-      <c r="V5" s="64"/>
+      <c r="U5" s="61"/>
+      <c r="V5" s="61"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6833,7 +6837,7 @@
       <c r="R6" s="43"/>
       <c r="S6" s="4"/>
       <c r="T6" s="49"/>
-      <c r="U6" s="61" t="s">
+      <c r="U6" s="71" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -6864,7 +6868,7 @@
       <c r="R7" s="43"/>
       <c r="S7" s="4"/>
       <c r="T7" s="49"/>
-      <c r="U7" s="62"/>
+      <c r="U7" s="72"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -6893,7 +6897,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="49"/>
-      <c r="U8" s="62"/>
+      <c r="U8" s="72"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -6922,7 +6926,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="49"/>
-      <c r="U9" s="62"/>
+      <c r="U9" s="72"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -6951,7 +6955,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="49"/>
-      <c r="U10" s="62"/>
+      <c r="U10" s="72"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -6980,7 +6984,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="49"/>
-      <c r="U11" s="62"/>
+      <c r="U11" s="72"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7009,7 +7013,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="49"/>
-      <c r="U12" s="61" t="s">
+      <c r="U12" s="71" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -7040,7 +7044,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="49"/>
-      <c r="U13" s="62"/>
+      <c r="U13" s="72"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7069,7 +7073,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="49"/>
-      <c r="U14" s="62"/>
+      <c r="U14" s="72"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7098,7 +7102,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="62"/>
+      <c r="U15" s="72"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7127,7 +7131,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="63"/>
+      <c r="U16" s="73"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -8358,13 +8362,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8376,6 +8373,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang1/02.XuLyBH/XLBH2101_GpsTayNinh.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang1/02.XuLyBH/XLBH2101_GpsTayNinh.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang1\02.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang1\02.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="19" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="100">
   <si>
     <t>STT</t>
   </si>
@@ -715,6 +715,15 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -743,15 +752,6 @@
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1060,8 +1060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView showZeros="0" topLeftCell="I1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1093,43 +1093,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="68" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71" t="s">
         <v>84</v>
       </c>
-      <c r="F2" s="68"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -1174,58 +1174,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="61" t="s">
+      <c r="A4" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61" t="s">
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="61" t="s">
+      <c r="K4" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="61"/>
-      <c r="M4" s="64" t="s">
+      <c r="L4" s="64"/>
+      <c r="M4" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="64" t="s">
+      <c r="N4" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="61" t="s">
+      <c r="O4" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="62" t="s">
+      <c r="P4" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="61" t="s">
+      <c r="Q4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="61" t="s">
+      <c r="R4" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="70" t="s">
+      <c r="S4" s="73" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="61" t="s">
+      <c r="U4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="61" t="s">
+      <c r="V4" s="64" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="69"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -1250,23 +1250,23 @@
       <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="61"/>
+      <c r="J5" s="64"/>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="70"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="73"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="61"/>
-      <c r="V5" s="61"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="64"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1314,7 +1314,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="13"/>
-      <c r="U6" s="71" t="s">
+      <c r="U6" s="61" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="13"/>
-      <c r="U7" s="72"/>
+      <c r="U7" s="62"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>23</v>
       </c>
       <c r="T8" s="13"/>
-      <c r="U8" s="72"/>
+      <c r="U8" s="62"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1487,7 +1487,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="23"/>
-      <c r="U9" s="72"/>
+      <c r="U9" s="62"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1544,7 +1544,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="32"/>
-      <c r="U10" s="72"/>
+      <c r="U10" s="62"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1573,7 +1573,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="13"/>
-      <c r="U11" s="72"/>
+      <c r="U11" s="62"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1602,7 +1602,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="13"/>
-      <c r="U12" s="71" t="s">
+      <c r="U12" s="61" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1633,7 +1633,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="13"/>
-      <c r="U13" s="72"/>
+      <c r="U13" s="62"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1662,7 +1662,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="13"/>
-      <c r="U14" s="72"/>
+      <c r="U14" s="62"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1691,7 +1691,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="72"/>
+      <c r="U15" s="62"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1720,7 +1720,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="73"/>
+      <c r="U16" s="63"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2951,11 +2951,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="P4:P5"/>
@@ -2969,6 +2964,11 @@
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2979,8 +2979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+    <sheetView showZeros="0" topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3012,43 +3012,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="68" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71" t="s">
         <v>84</v>
       </c>
-      <c r="F2" s="68"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -3093,58 +3093,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="61" t="s">
+      <c r="A4" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61" t="s">
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="61" t="s">
+      <c r="K4" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="61"/>
-      <c r="M4" s="64" t="s">
+      <c r="L4" s="64"/>
+      <c r="M4" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="64" t="s">
+      <c r="N4" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="61" t="s">
+      <c r="O4" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="62" t="s">
+      <c r="P4" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="61" t="s">
+      <c r="Q4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="61" t="s">
+      <c r="R4" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="70" t="s">
+      <c r="S4" s="73" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="61" t="s">
+      <c r="U4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="61" t="s">
+      <c r="V4" s="64" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="69"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="50" t="s">
         <v>1</v>
       </c>
@@ -3169,23 +3169,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="61"/>
+      <c r="J5" s="64"/>
       <c r="K5" s="50" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="70"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="73"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="61"/>
-      <c r="V5" s="61"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="64"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3241,7 +3241,7 @@
         <v>91</v>
       </c>
       <c r="T6" s="49"/>
-      <c r="U6" s="71" t="s">
+      <c r="U6" s="61" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3272,7 +3272,7 @@
       <c r="R7" s="43"/>
       <c r="S7" s="4"/>
       <c r="T7" s="49"/>
-      <c r="U7" s="72"/>
+      <c r="U7" s="62"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3301,7 +3301,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="49"/>
-      <c r="U8" s="72"/>
+      <c r="U8" s="62"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3330,7 +3330,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="49"/>
-      <c r="U9" s="72"/>
+      <c r="U9" s="62"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3359,7 +3359,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="49"/>
-      <c r="U10" s="72"/>
+      <c r="U10" s="62"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3388,7 +3388,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="49"/>
-      <c r="U11" s="72"/>
+      <c r="U11" s="62"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3417,7 +3417,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="49"/>
-      <c r="U12" s="71" t="s">
+      <c r="U12" s="61" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3448,7 +3448,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="49"/>
-      <c r="U13" s="72"/>
+      <c r="U13" s="62"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3477,7 +3477,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="49"/>
-      <c r="U14" s="72"/>
+      <c r="U14" s="62"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3506,7 +3506,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="72"/>
+      <c r="U15" s="62"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3535,7 +3535,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="73"/>
+      <c r="U16" s="63"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4766,6 +4766,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4777,13 +4784,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4794,8 +4794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+    <sheetView showZeros="0" topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4827,43 +4827,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="68" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71" t="s">
         <v>84</v>
       </c>
-      <c r="F2" s="68"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -4908,58 +4908,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="61" t="s">
+      <c r="A4" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61" t="s">
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="61" t="s">
+      <c r="K4" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="61"/>
-      <c r="M4" s="64" t="s">
+      <c r="L4" s="64"/>
+      <c r="M4" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="64" t="s">
+      <c r="N4" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="61" t="s">
+      <c r="O4" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="62" t="s">
+      <c r="P4" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="61" t="s">
+      <c r="Q4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="61" t="s">
+      <c r="R4" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="70" t="s">
+      <c r="S4" s="73" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="61" t="s">
+      <c r="U4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="61" t="s">
+      <c r="V4" s="64" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="69"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="53" t="s">
         <v>1</v>
       </c>
@@ -4984,23 +4984,23 @@
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="61"/>
+      <c r="J5" s="64"/>
       <c r="K5" s="53" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="70"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="73"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="61"/>
-      <c r="V5" s="61"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="64"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5052,7 +5052,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="52"/>
-      <c r="U6" s="71" t="s">
+      <c r="U6" s="61" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5083,7 +5083,7 @@
       <c r="R7" s="43"/>
       <c r="S7" s="4"/>
       <c r="T7" s="52"/>
-      <c r="U7" s="72"/>
+      <c r="U7" s="62"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5112,7 +5112,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="52"/>
-      <c r="U8" s="72"/>
+      <c r="U8" s="62"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5141,7 +5141,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="52"/>
-      <c r="U9" s="72"/>
+      <c r="U9" s="62"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5170,7 +5170,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="52"/>
-      <c r="U10" s="72"/>
+      <c r="U10" s="62"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5199,7 +5199,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="52"/>
-      <c r="U11" s="72"/>
+      <c r="U11" s="62"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5228,7 +5228,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="52"/>
-      <c r="U12" s="71" t="s">
+      <c r="U12" s="61" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5259,7 +5259,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="52"/>
-      <c r="U13" s="72"/>
+      <c r="U13" s="62"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5288,7 +5288,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="52"/>
-      <c r="U14" s="72"/>
+      <c r="U14" s="62"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5317,7 +5317,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="72"/>
+      <c r="U15" s="62"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5346,7 +5346,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="73"/>
+      <c r="U16" s="63"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6577,13 +6577,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6595,6 +6588,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6605,8 +6605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6638,43 +6638,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="68" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71" t="s">
         <v>84</v>
       </c>
-      <c r="F2" s="68"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -6719,58 +6719,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="61" t="s">
+      <c r="A4" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61" t="s">
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="61" t="s">
+      <c r="K4" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="61"/>
-      <c r="M4" s="64" t="s">
+      <c r="L4" s="64"/>
+      <c r="M4" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="64" t="s">
+      <c r="N4" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="61" t="s">
+      <c r="O4" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="62" t="s">
+      <c r="P4" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="61" t="s">
+      <c r="Q4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="61" t="s">
+      <c r="R4" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="70" t="s">
+      <c r="S4" s="73" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="61" t="s">
+      <c r="U4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="61" t="s">
+      <c r="V4" s="64" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="69"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="50" t="s">
         <v>1</v>
       </c>
@@ -6795,49 +6795,71 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="61"/>
+      <c r="J5" s="64"/>
       <c r="K5" s="50" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="70"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="73"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="61"/>
-      <c r="V5" s="61"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="64"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="44"/>
+      <c r="B6" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="44">
+        <v>868183035889521</v>
+      </c>
       <c r="F6" s="58"/>
-      <c r="G6" s="43"/>
+      <c r="G6" s="43" t="s">
+        <v>64</v>
+      </c>
       <c r="H6" s="43"/>
       <c r="I6" s="59"/>
-      <c r="J6" s="45"/>
+      <c r="J6" s="45" t="s">
+        <v>68</v>
+      </c>
       <c r="K6" s="48"/>
       <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
+      <c r="M6" s="45" t="s">
+        <v>69</v>
+      </c>
       <c r="N6" s="47"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="43"/>
+      <c r="O6" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="P6" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="43" t="s">
+        <v>30</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="49"/>
-      <c r="U6" s="71" t="s">
+      <c r="U6" s="61" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -6849,26 +6871,54 @@
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="44"/>
+      <c r="B7" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="44">
+        <v>868183035883003</v>
+      </c>
       <c r="F7" s="58"/>
-      <c r="G7" s="43"/>
+      <c r="G7" s="43" t="s">
+        <v>64</v>
+      </c>
       <c r="H7" s="43"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
+      <c r="I7" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="J7" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L7" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="M7" s="45" t="s">
+        <v>76</v>
+      </c>
       <c r="N7" s="3"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="43"/>
+      <c r="O7" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="P7" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="R7" s="43" t="s">
+        <v>79</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="49"/>
-      <c r="U7" s="72"/>
+      <c r="U7" s="62"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -6878,26 +6928,54 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="44"/>
+      <c r="B8" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="44">
+        <v>868183033825345</v>
+      </c>
       <c r="F8" s="58"/>
-      <c r="G8" s="43"/>
+      <c r="G8" s="43" t="s">
+        <v>65</v>
+      </c>
       <c r="H8" s="43"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="45"/>
+      <c r="I8" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="J8" s="45" t="s">
+        <v>81</v>
+      </c>
       <c r="K8" s="46"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
+      <c r="L8" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="M8" s="45" t="s">
+        <v>82</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="43"/>
-      <c r="S8" s="4"/>
+      <c r="O8" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="R8" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="T8" s="49"/>
-      <c r="U8" s="72"/>
+      <c r="U8" s="62"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -6907,26 +6985,54 @@
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
+      <c r="B9" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="44">
+        <v>868183035904585</v>
+      </c>
+      <c r="F9" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="43" t="s">
+        <v>64</v>
+      </c>
       <c r="H9" s="2"/>
-      <c r="I9" s="60"/>
+      <c r="I9" s="60" t="s">
+        <v>72</v>
+      </c>
       <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="45"/>
+      <c r="K9" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M9" s="45" t="s">
+        <v>82</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="43"/>
+      <c r="O9" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="43" t="s">
+        <v>24</v>
+      </c>
       <c r="S9" s="4"/>
       <c r="T9" s="49"/>
-      <c r="U9" s="72"/>
+      <c r="U9" s="62"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -6936,26 +7042,54 @@
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="44"/>
+      <c r="B10" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="44">
+        <v>868183037786501</v>
+      </c>
       <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="1"/>
+      <c r="G10" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10" s="60" t="s">
+        <v>95</v>
+      </c>
+      <c r="J10" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="L10" s="45"/>
-      <c r="M10" s="45"/>
+      <c r="M10" s="45" t="s">
+        <v>97</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="45"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="43"/>
+      <c r="O10" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R10" s="43" t="s">
+        <v>21</v>
+      </c>
       <c r="S10" s="4"/>
       <c r="T10" s="49"/>
-      <c r="U10" s="72"/>
+      <c r="U10" s="62"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -6965,26 +7099,56 @@
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="45"/>
+      <c r="B11" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="44">
+        <v>864811037203044</v>
+      </c>
+      <c r="F11" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" s="43"/>
+      <c r="I11" s="59" t="s">
+        <v>87</v>
+      </c>
       <c r="J11" s="45"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="45"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="45"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="43"/>
-      <c r="S11" s="4"/>
+      <c r="K11" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="L11" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="M11" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="N11" s="47"/>
+      <c r="O11" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="P11" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="R11" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="T11" s="49"/>
-      <c r="U11" s="72"/>
+      <c r="U11" s="62"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -6994,26 +7158,52 @@
       <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="B12" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" s="44">
+        <v>861694037971205</v>
+      </c>
+      <c r="F12" s="58"/>
+      <c r="G12" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" s="43"/>
+      <c r="I12" s="60" t="s">
+        <v>87</v>
+      </c>
       <c r="J12" s="45"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="45"/>
-      <c r="M12" s="45"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="45"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="43"/>
+      <c r="K12" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="L12" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="N12" s="47"/>
+      <c r="O12" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="P12" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="43" t="s">
+        <v>24</v>
+      </c>
       <c r="S12" s="4"/>
       <c r="T12" s="49"/>
-      <c r="U12" s="71" t="s">
+      <c r="U12" s="61" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -7044,7 +7234,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="49"/>
-      <c r="U13" s="72"/>
+      <c r="U13" s="62"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7073,7 +7263,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="49"/>
-      <c r="U14" s="72"/>
+      <c r="U14" s="62"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7102,7 +7292,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="72"/>
+      <c r="U15" s="62"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7131,7 +7321,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="73"/>
+      <c r="U16" s="63"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -7250,7 +7440,7 @@
       </c>
       <c r="V20" s="11">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W20" s="16"/>
     </row>
@@ -7282,7 +7472,7 @@
       </c>
       <c r="V21" s="11">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W21" s="16"/>
     </row>
@@ -7314,7 +7504,7 @@
       </c>
       <c r="V22" s="11">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W22" s="16"/>
     </row>
@@ -7495,7 +7685,7 @@
       </c>
       <c r="V28" s="11">
         <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W28" s="16"/>
     </row>
@@ -7527,7 +7717,7 @@
       </c>
       <c r="V29" s="11">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29" s="16"/>
     </row>
@@ -7591,7 +7781,7 @@
       </c>
       <c r="V31" s="11">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="16"/>
     </row>
@@ -7719,7 +7909,7 @@
       </c>
       <c r="V35" s="11">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W35" s="16"/>
     </row>
@@ -7783,7 +7973,7 @@
       </c>
       <c r="V37" s="11">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="W37" s="16"/>
     </row>
@@ -7901,7 +8091,7 @@
       </c>
       <c r="V41" s="11">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41" s="16"/>
     </row>
@@ -8023,7 +8213,7 @@
       </c>
       <c r="V45" s="11">
         <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 3-20*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W45" s="11">
         <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 1-21*")</f>
@@ -8362,6 +8552,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8373,13 +8570,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
